--- a/medicine/Enfance/The_Tales_of_Beatrix_Potter/The_Tales_of_Beatrix_Potter.xlsx
+++ b/medicine/Enfance/The_Tales_of_Beatrix_Potter/The_Tales_of_Beatrix_Potter.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">The Tales of Beatrix Potter est un film britannique réalisé par Reginald Mills et chorégraphié par Frederick Ashton, sorti en 1971. Le film est basé sur les histoires de Beatrix Potter. 
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,7 +551,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : The Tales of Beatrix Potter
 Réalisation : Reginald Mills
@@ -573,7 +589,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Birmingham Royal Ballet :
 Frederick Ashton : Mrs. Tiggy-Winkle
@@ -608,7 +626,9 @@
           <t>Récompense</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>National Board of Review: Top Ten Films 1971</t>
         </is>
